--- a/intlab/Test_1.xlsx
+++ b/intlab/Test_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DE\Documents\Github\intlab\intlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84BDD71-C06B-43B0-9300-425DC0FD88D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00232F9E-B1C5-49C5-89FC-65CC793C6B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6922B261-9E75-42D9-A0E7-113E6E8E7042}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{6922B261-9E75-42D9-A0E7-113E6E8E7042}"/>
   </bookViews>
   <sheets>
     <sheet name="実験1" sheetId="1" r:id="rId1"/>
@@ -4616,6 +4616,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>知識</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4681,6 +4736,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>選択回数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4935,6 +5052,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>知識</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5000,6 +5172,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>選択回数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5095,6 +5322,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>各知識の選択回数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5229,6 +5488,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>知識</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5294,6 +5615,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>選択回数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5548,6 +5931,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>知識</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5613,6 +6058,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>選択回数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12051,7 +12558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9B9A34-52AF-4956-8706-58F856791C87}">
   <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -15896,7 +16405,7 @@
   <dimension ref="B1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19743,7 +20252,7 @@
   <dimension ref="B1:O107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23589,7 +24098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5E0712-51AA-4EEB-8BC7-E5926C1388A8}">
   <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
